--- a/AfDD_2024_Annex_Table_Tab20.xlsx
+++ b/AfDD_2024_Annex_Table_Tab20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F24F091-3D2E-43AA-B3A6-A54CF4C03A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{095CEABF-71FA-4B02-BB9E-93A6A4AC9083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{336B46AC-3FF0-48F7-8718-0195B30D077B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32B90040-136F-4F46-8FCB-C72D1923E32F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -1712,7 +1712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F9E8B8-4DBF-47E4-9D30-3BB9805C99A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C32389C-179C-48DC-91A4-7E55005F8484}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6894,12 +6894,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{228CAA76-3215-4805-BC38-29BB7A4646B7}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{84DB116E-B464-44B1-A525-52064F5CDBD9}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{C06C4D11-FF9F-4E68-9195-91C9C34A647E}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{23901DCD-78E8-4E10-9B02-38F69CC36884}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{32F34B9A-A62D-41B8-8789-DDCCA40D0B4D}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{1201C0F5-29BF-4FA5-A409-0D96A137DD90}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{107C7F45-F95E-4B56-9E83-F93FE2BE9853}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BE7C5D84-2D6D-4A19-9AEB-5F69EF0D1EF1}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CE7A0222-C804-4077-9EB0-5CE51C7E6C99}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{BA752C1C-2A0F-4C8C-AD02-B51FB631496B}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{69293DA7-C0ED-422D-BB75-720C22C7F34C}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{2312E895-1222-4F84-9554-F25AF79BBC0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab20.xlsx
+++ b/AfDD_2024_Annex_Table_Tab20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{095CEABF-71FA-4B02-BB9E-93A6A4AC9083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0523C66-B029-4E01-99F1-0A47D282232E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32B90040-136F-4F46-8FCB-C72D1923E32F}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{314DFBEC-9943-4401-8D36-DAFB57799A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -1393,10 +1393,10 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1712,7 +1712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C32389C-179C-48DC-91A4-7E55005F8484}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FFC0C2-8564-4C93-8447-1AF71D298ABA}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1724,9 +1724,9 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="12.42578125" style="157" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="158" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.42578125" style="157" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12.42578125" style="158" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="159" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.42578125" style="158" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6818,7 +6818,7 @@
       <c r="P110" s="153"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B111" s="159" t="s">
+      <c r="B111" s="156" t="s">
         <v>178</v>
       </c>
       <c r="C111" s="153"/>
@@ -6837,7 +6837,7 @@
       <c r="P111" s="153"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="156" t="s">
         <v>175</v>
       </c>
       <c r="C112" s="153"/>
@@ -6890,16 +6890,16 @@
       <c r="P114" s="153"/>
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B115" s="156"/>
+      <c r="B115" s="157"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{107C7F45-F95E-4B56-9E83-F93FE2BE9853}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BE7C5D84-2D6D-4A19-9AEB-5F69EF0D1EF1}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CE7A0222-C804-4077-9EB0-5CE51C7E6C99}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{BA752C1C-2A0F-4C8C-AD02-B51FB631496B}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{69293DA7-C0ED-422D-BB75-720C22C7F34C}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{2312E895-1222-4F84-9554-F25AF79BBC0A}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A8504E51-3FAF-4178-A76F-57E2FC9ECBAF}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{0C8504E9-11D7-4822-8B28-5EB280AC95AE}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{4D82D784-D605-4DB7-83B4-8DFEBBFE6CA0}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{ABB6836F-7B04-4293-87F5-3E74673385F6}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{4D340ED8-5302-4BEB-84A6-D663585EBF4E}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{BF1BBDB7-71A9-4DB2-BABE-5E2991C63FE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab20.xlsx
+++ b/AfDD_2024_Annex_Table_Tab20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0523C66-B029-4E01-99F1-0A47D282232E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45CB80B4-C178-45F8-8A10-1A54E2FAEB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{314DFBEC-9943-4401-8D36-DAFB57799A3B}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{BE1793C4-B8D5-4779-BF80-88813DF6D64A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -1712,7 +1712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FFC0C2-8564-4C93-8447-1AF71D298ABA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A39ADAD-1F1C-4C2B-9E87-27425A1395DF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6894,12 +6894,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A8504E51-3FAF-4178-A76F-57E2FC9ECBAF}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{0C8504E9-11D7-4822-8B28-5EB280AC95AE}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{4D82D784-D605-4DB7-83B4-8DFEBBFE6CA0}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{ABB6836F-7B04-4293-87F5-3E74673385F6}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{4D340ED8-5302-4BEB-84A6-D663585EBF4E}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{BF1BBDB7-71A9-4DB2-BABE-5E2991C63FE1}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4984F593-85D5-45CF-889B-9AC7FA5D60F7}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{946561CB-689A-46E9-AD77-D8CEE7CF75FA}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CDFB10FA-E27A-4B27-B167-8C35526CF281}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{CBDABE68-C0EB-4E67-A0C8-734CB53E149E}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{8916EB39-772E-4EA9-98CF-531E4D68D35A}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{92C495FC-6CE0-45F6-BC9E-91AC9A2A89AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId7"/>
